--- a/data/Oldest_Person_Titleholders.xlsx
+++ b/data/Oldest_Person_Titleholders.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory\Documents\r\oldest_people\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6B19DEE7-4B7D-4E96-8D9E-130ED1996021}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{15B6DCBF-2E5B-4938-A757-3D5615A53BFF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A4905945-FFD8-4158-938F-34B6BC2AD5A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_msoanchor_1" localSheetId="0">Sheet1!$D$10</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="490">
   <si>
     <t>#</t>
   </si>
@@ -105,9 +104,6 @@
     <t>110-111</t>
   </si>
   <si>
-    <t>     1.14</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -120,9 +116,6 @@
     <t>107-109</t>
   </si>
   <si>
-    <t>     1.28</t>
-  </si>
-  <si>
     <t>N.A. (less than 110)</t>
   </si>
   <si>
@@ -135,9 +128,6 @@
     <t>108-109</t>
   </si>
   <si>
-    <t>     0.55</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
@@ -150,9 +140,6 @@
     <t>109-110</t>
   </si>
   <si>
-    <t>     0.97</t>
-  </si>
-  <si>
     <t>original 1999 list</t>
   </si>
   <si>
@@ -165,9 +152,6 @@
     <t>May  1, 1850</t>
   </si>
   <si>
-    <t>     0.13</t>
-  </si>
-  <si>
     <t>U.S. (MI)</t>
   </si>
   <si>
@@ -183,9 +167,6 @@
     <t>108-113</t>
   </si>
   <si>
-    <t>     5.10</t>
-  </si>
-  <si>
     <t>Feb.  7, 2011</t>
   </si>
   <si>
@@ -198,9 +179,6 @@
     <t>1964-1965</t>
   </si>
   <si>
-    <t>     0.18</t>
-  </si>
-  <si>
     <t>U.S. (TX)</t>
   </si>
   <si>
@@ -213,9 +191,6 @@
     <t>U.S. (OK)</t>
   </si>
   <si>
-    <t>     0.42</t>
-  </si>
-  <si>
     <t>Hannah Smith</t>
   </si>
   <si>
@@ -225,9 +200,6 @@
     <t>1965-1966</t>
   </si>
   <si>
-    <t>     0.43</t>
-  </si>
-  <si>
     <t>John Turner</t>
   </si>
   <si>
@@ -240,18 +212,12 @@
     <t>109-111</t>
   </si>
   <si>
-    <t>     2.19</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
     <t>Johanna Booysen</t>
   </si>
   <si>
-    <t>    0.24</t>
-  </si>
-  <si>
     <t>Czechoslovakia</t>
   </si>
   <si>
@@ -261,9 +227,6 @@
     <t>1968-1969</t>
   </si>
   <si>
-    <t>     0.88</t>
-  </si>
-  <si>
     <t>Ada Roe</t>
   </si>
   <si>
@@ -273,9 +236,6 @@
     <t>1969-1970</t>
   </si>
   <si>
-    <t>     0.69</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -291,9 +251,6 @@
     <t>109-112</t>
   </si>
   <si>
-    <t>     3.13</t>
-  </si>
-  <si>
     <t>Alice Stevenson</t>
   </si>
   <si>
@@ -303,15 +260,9 @@
     <t>111-112</t>
   </si>
   <si>
-    <t>     0.47</t>
-  </si>
-  <si>
     <t>N. Ireland (UK)</t>
   </si>
   <si>
-    <t>    0.20</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -327,9 +278,6 @@
     <t>110-112</t>
   </si>
   <si>
-    <t>     1.58</t>
-  </si>
-  <si>
     <t>Niwa Kawamoto</t>
   </si>
   <si>
@@ -342,9 +290,6 @@
     <t>111-113</t>
   </si>
   <si>
-    <t>     1.46</t>
-  </si>
-  <si>
     <t>U.S. (MO)</t>
   </si>
   <si>
@@ -354,9 +299,6 @@
     <t>1976-1977</t>
   </si>
   <si>
-    <t>     1.04</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
@@ -366,9 +308,6 @@
     <t>1977-1978</t>
   </si>
   <si>
-    <t>     0.39</t>
-  </si>
-  <si>
     <t>U.S. (IL)</t>
   </si>
   <si>
@@ -378,18 +317,12 @@
     <t>1978-1981</t>
   </si>
   <si>
-    <t>     2.75</t>
-  </si>
-  <si>
     <t>Augustine Teissier</t>
   </si>
   <si>
     <t>Jan.  2, 1869</t>
   </si>
   <si>
-    <t>     0.12</t>
-  </si>
-  <si>
     <t>U.S. (NH)</t>
   </si>
   <si>
@@ -405,9 +338,6 @@
     <t>112-113</t>
   </si>
   <si>
-    <t>     1.68</t>
-  </si>
-  <si>
     <t>Emma Wilson</t>
   </si>
   <si>
@@ -417,9 +347,6 @@
     <t>1982-1983</t>
   </si>
   <si>
-    <t>     0.92</t>
-  </si>
-  <si>
     <t>U.S. (VA)</t>
   </si>
   <si>
@@ -435,9 +362,6 @@
     <t>113-114</t>
   </si>
   <si>
-    <t>    1.35</t>
-  </si>
-  <si>
     <t>July  1, 2003</t>
   </si>
   <si>
@@ -459,9 +383,6 @@
     <t>1986-1987</t>
   </si>
   <si>
-    <t>     0.28</t>
-  </si>
-  <si>
     <t>Anna Eliza Williams</t>
   </si>
   <si>
@@ -471,9 +392,6 @@
     <t>Wales (UK)</t>
   </si>
   <si>
-    <t>     0.90</t>
-  </si>
-  <si>
     <t>U.S. (PA)</t>
   </si>
   <si>
@@ -483,18 +401,12 @@
     <t>1987-1988</t>
   </si>
   <si>
-    <t>     0.04</t>
-  </si>
-  <si>
     <t>1988-1997</t>
   </si>
   <si>
     <t>112-122</t>
   </si>
   <si>
-    <t>     9.56</t>
-  </si>
-  <si>
     <t>Canada (Que)</t>
   </si>
   <si>
@@ -510,9 +422,6 @@
     <t>116-117</t>
   </si>
   <si>
-    <t>     0.70</t>
-  </si>
-  <si>
     <t>Sarah Knauss</t>
   </si>
   <si>
@@ -522,54 +431,33 @@
     <t>117-119</t>
   </si>
   <si>
-    <t>     1.71</t>
-  </si>
-  <si>
     <t>Eva Morris</t>
   </si>
   <si>
     <t>1999-2000</t>
   </si>
   <si>
-    <t>     0.84</t>
-  </si>
-  <si>
     <t>Marie Bremont</t>
   </si>
   <si>
     <t>2000-2001</t>
   </si>
   <si>
-    <t>     0.59</t>
-  </si>
-  <si>
     <t>Maud Farris-Luse</t>
   </si>
   <si>
     <t>2001-2002</t>
   </si>
   <si>
-    <t>     0.78</t>
-  </si>
-  <si>
-    <t>     0.19</t>
-  </si>
-  <si>
     <t>Adelina Domingues</t>
   </si>
   <si>
-    <t>     0.23</t>
-  </si>
-  <si>
     <t>U.S. (NY)</t>
   </si>
   <si>
     <t>Mae Harrington</t>
   </si>
   <si>
-    <t>     0.36</t>
-  </si>
-  <si>
     <t>Yukichi Chuganji</t>
   </si>
   <si>
@@ -579,9 +467,6 @@
     <t>2002-2003</t>
   </si>
   <si>
-    <t>     0.75</t>
-  </si>
-  <si>
     <t>Mitoyo Kawate</t>
   </si>
   <si>
@@ -597,9 +482,6 @@
     <t>2003-2004</t>
   </si>
   <si>
-    <t>     0.54</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -609,24 +491,15 @@
     <t>114-116</t>
   </si>
   <si>
-    <t>     2.25</t>
-  </si>
-  <si>
     <t>U.S. (TN)</t>
   </si>
   <si>
     <t>Elizabeth Bolden</t>
   </si>
   <si>
-    <t>     0.29</t>
-  </si>
-  <si>
     <t>Emiliano Mercado Del Toro</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>2006-2007</t>
   </si>
   <si>
@@ -639,9 +512,6 @@
     <t>U.S. (CT)</t>
   </si>
   <si>
-    <t>     0.01</t>
-  </si>
-  <si>
     <t>Yone Minagawa</t>
   </si>
   <si>
@@ -654,9 +524,6 @@
     <t>2007-2008</t>
   </si>
   <si>
-    <t>     1.29</t>
-  </si>
-  <si>
     <t>Apr.  1, 2005</t>
   </si>
   <si>
@@ -669,9 +536,6 @@
     <t>2008-2009</t>
   </si>
   <si>
-    <t>     0.10</t>
-  </si>
-  <si>
     <t>U.S. (GA)</t>
   </si>
   <si>
@@ -693,18 +557,12 @@
     <t>2009-2010</t>
   </si>
   <si>
-    <t>    0.64</t>
-  </si>
-  <si>
     <t>Eugenie Blanchard</t>
   </si>
   <si>
     <t>France (St. Barts)</t>
   </si>
   <si>
-    <t>     0.51</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
@@ -714,18 +572,12 @@
     <t>2010-2011</t>
   </si>
   <si>
-    <t>     0.63</t>
-  </si>
-  <si>
     <t>Besse Cooper</t>
   </si>
   <si>
     <t>2011-2012</t>
   </si>
   <si>
-    <t>     1.45</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -750,9 +602,6 @@
     <t>115-116</t>
   </si>
   <si>
-    <t>     0.48</t>
-  </si>
-  <si>
     <t>Misao Okawa</t>
   </si>
   <si>
@@ -765,9 +614,6 @@
     <t>115-117</t>
   </si>
   <si>
-    <t>     1.80</t>
-  </si>
-  <si>
     <t>U.S. (AR)</t>
   </si>
   <si>
@@ -786,9 +632,6 @@
     <t>May 23, 1899</t>
   </si>
   <si>
-    <t>     0.20</t>
-  </si>
-  <si>
     <t>Apr.  4, 2012</t>
   </si>
   <si>
@@ -828,18 +671,12 @@
     <t>2017-2018</t>
   </si>
   <si>
-    <t>    0.60</t>
-  </si>
-  <si>
     <t>Chiyo Miyako</t>
   </si>
   <si>
     <t>Japan (Kanagawa)</t>
   </si>
   <si>
-    <t>     0.25</t>
-  </si>
-  <si>
     <t>Kane Tanaka</t>
   </si>
   <si>
@@ -1669,6 +1506,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2071,9 +1911,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2145,48 +1982,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2577,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32A7C32-F7A9-40E6-8AE8-B936AF97B33B}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,50 +2392,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="97" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2654,16 +2449,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="E2" s="134" t="s">
-        <v>478</v>
-      </c>
-      <c r="F2" s="132">
+        <v>382</v>
+      </c>
+      <c r="E2" s="119" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" s="117">
         <v>113.18</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>12</v>
@@ -2677,7 +2472,7 @@
       <c r="K2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="97" t="s">
+      <c r="L2" s="96" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -2686,8 +2481,8 @@
       <c r="N2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="114" t="s">
-        <v>298</v>
+      <c r="O2" s="99" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2701,16 +2496,16 @@
         <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="E3" s="134" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3" s="132">
+        <v>401</v>
+      </c>
+      <c r="E3" s="119" t="s">
+        <v>425</v>
+      </c>
+      <c r="F3" s="117">
         <v>111.85</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>12</v>
@@ -2724,14 +2519,14 @@
       <c r="K3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="116" t="s">
-        <v>359</v>
-      </c>
-      <c r="M3" s="117" t="s">
-        <v>299</v>
+      <c r="L3" s="101" t="s">
+        <v>305</v>
+      </c>
+      <c r="M3" s="102" t="s">
+        <v>245</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>437</v>
+        <v>383</v>
       </c>
       <c r="O3" s="11"/>
     </row>
@@ -2740,22 +2535,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E4" s="134" t="s">
-        <v>480</v>
-      </c>
-      <c r="F4" s="132">
+        <v>396</v>
+      </c>
+      <c r="E4" s="119" t="s">
+        <v>426</v>
+      </c>
+      <c r="F4" s="117">
         <v>109.18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>12</v>
@@ -2764,19 +2559,19 @@
         <v>13</v>
       </c>
       <c r="J4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="101" t="s">
+        <v>306</v>
+      </c>
+      <c r="M4" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="L4" s="116" t="s">
-        <v>360</v>
-      </c>
-      <c r="M4" s="117" t="s">
-        <v>300</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="O4" s="11"/>
     </row>
@@ -2785,43 +2580,43 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="E5" s="134" t="s">
-        <v>481</v>
-      </c>
-      <c r="F5" s="132">
+        <v>412</v>
+      </c>
+      <c r="E5" s="119" t="s">
+        <v>427</v>
+      </c>
+      <c r="F5" s="117">
         <v>109.12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5" s="9">
         <v>1958</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="116" t="s">
-        <v>361</v>
-      </c>
-      <c r="M5" s="117" t="s">
-        <v>301</v>
+        <v>28</v>
+      </c>
+      <c r="L5" s="101" t="s">
+        <v>307</v>
+      </c>
+      <c r="M5" s="102" t="s">
+        <v>247</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O5" s="11"/>
     </row>
@@ -2830,43 +2625,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="119" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6" s="117">
+        <v>110.01</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="L6" s="101" t="s">
+        <v>308</v>
+      </c>
+      <c r="M6" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E6" s="134" t="s">
-        <v>482</v>
-      </c>
-      <c r="F6" s="132">
-        <v>110.01</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="116" t="s">
-        <v>362</v>
-      </c>
-      <c r="M6" s="117" t="s">
-        <v>302</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="O6" s="11"/>
     </row>
@@ -2875,28 +2670,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="134" t="s">
-        <v>483</v>
-      </c>
-      <c r="F7" s="132">
+        <v>36</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>429</v>
+      </c>
+      <c r="F7" s="117">
         <v>109.57</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J7" s="9">
         <v>1959</v>
@@ -2904,14 +2699,14 @@
       <c r="K7" s="10">
         <v>109</v>
       </c>
-      <c r="L7" s="116" t="s">
-        <v>363</v>
-      </c>
-      <c r="M7" s="117" t="s">
-        <v>303</v>
+      <c r="L7" s="101" t="s">
+        <v>309</v>
+      </c>
+      <c r="M7" s="102" t="s">
+        <v>249</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O7" s="11"/>
     </row>
@@ -2920,22 +2715,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="134" t="s">
-        <v>484</v>
-      </c>
-      <c r="F8" s="132">
+        <v>39</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>430</v>
+      </c>
+      <c r="F8" s="117">
         <v>113.56</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>12</v>
@@ -2944,19 +2739,19 @@
         <v>18</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="116" t="s">
-        <v>364</v>
-      </c>
-      <c r="M8" s="117" t="s">
-        <v>304</v>
+        <v>41</v>
+      </c>
+      <c r="L8" s="101" t="s">
+        <v>310</v>
+      </c>
+      <c r="M8" s="102" t="s">
+        <v>250</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O8" s="11"/>
     </row>
@@ -2968,19 +2763,19 @@
         <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="134" t="s">
-        <v>485</v>
-      </c>
-      <c r="F9" s="132">
+        <v>44</v>
+      </c>
+      <c r="E9" s="119" t="s">
+        <v>431</v>
+      </c>
+      <c r="F9" s="117">
         <v>109.82</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>12</v>
@@ -2989,19 +2784,19 @@
         <v>10</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K9" s="10">
         <v>109</v>
       </c>
-      <c r="L9" s="116" t="s">
-        <v>365</v>
-      </c>
-      <c r="M9" s="117" t="s">
-        <v>305</v>
+      <c r="L9" s="101" t="s">
+        <v>311</v>
+      </c>
+      <c r="M9" s="102" t="s">
+        <v>251</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="O9" s="11"/>
     </row>
@@ -3010,46 +2805,46 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="113" t="s">
-        <v>279</v>
-      </c>
-      <c r="E10" s="134" t="s">
-        <v>486</v>
-      </c>
-      <c r="F10" s="132">
+        <v>47</v>
+      </c>
+      <c r="D10" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="119" t="s">
+        <v>432</v>
+      </c>
+      <c r="F10" s="117">
         <v>110.08</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J10" s="9">
         <v>1965</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="116" t="s">
-        <v>366</v>
-      </c>
-      <c r="M10" s="117" t="s">
-        <v>306</v>
+        <v>32</v>
+      </c>
+      <c r="L10" s="101" t="s">
+        <v>312</v>
+      </c>
+      <c r="M10" s="102" t="s">
+        <v>252</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="O10" s="114" t="s">
-        <v>278</v>
+        <v>413</v>
+      </c>
+      <c r="O10" s="99" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3060,19 +2855,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="134" t="s">
-        <v>487</v>
-      </c>
-      <c r="F11" s="132">
+        <v>51</v>
+      </c>
+      <c r="E11" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="F11" s="117">
         <v>110.01</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>12</v>
@@ -3081,16 +2876,16 @@
         <v>10</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="116" t="s">
-        <v>367</v>
-      </c>
-      <c r="M11" s="117" t="s">
-        <v>307</v>
+        <v>32</v>
+      </c>
+      <c r="L11" s="101" t="s">
+        <v>313</v>
+      </c>
+      <c r="M11" s="102" t="s">
+        <v>253</v>
       </c>
       <c r="N11" s="13">
         <v>38918</v>
@@ -3105,40 +2900,40 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="134" t="s">
-        <v>488</v>
-      </c>
-      <c r="F12" s="132">
+        <v>54</v>
+      </c>
+      <c r="E12" s="119" t="s">
+        <v>434</v>
+      </c>
+      <c r="F12" s="117">
         <v>111.77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="116" t="s">
-        <v>368</v>
-      </c>
-      <c r="M12" s="117" t="s">
-        <v>308</v>
+        <v>56</v>
+      </c>
+      <c r="L12" s="101" t="s">
+        <v>314</v>
+      </c>
+      <c r="M12" s="102" t="s">
+        <v>254</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O12" s="11"/>
     </row>
@@ -3147,28 +2942,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="E13" s="135" t="s">
-        <v>489</v>
-      </c>
-      <c r="F13" s="132">
+        <v>397</v>
+      </c>
+      <c r="E13" s="120" t="s">
+        <v>435</v>
+      </c>
+      <c r="F13" s="117">
         <v>111.41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J13" s="17">
         <v>1968</v>
@@ -3176,14 +2971,14 @@
       <c r="K13" s="18">
         <v>111</v>
       </c>
-      <c r="L13" s="118" t="s">
-        <v>369</v>
-      </c>
-      <c r="M13" s="117" t="s">
-        <v>309</v>
+      <c r="L13" s="103" t="s">
+        <v>315</v>
+      </c>
+      <c r="M13" s="102" t="s">
+        <v>255</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O13" s="11"/>
     </row>
@@ -3192,43 +2987,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="E14" s="134" t="s">
-        <v>490</v>
-      </c>
-      <c r="F14" s="132">
+        <v>358</v>
+      </c>
+      <c r="E14" s="119" t="s">
+        <v>436</v>
+      </c>
+      <c r="F14" s="117">
         <v>111.53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="116" t="s">
-        <v>370</v>
-      </c>
-      <c r="M14" s="117" t="s">
-        <v>310</v>
+      <c r="L14" s="101" t="s">
+        <v>316</v>
+      </c>
+      <c r="M14" s="102" t="s">
+        <v>256</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O14" s="11"/>
     </row>
@@ -3240,19 +3035,19 @@
         <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="134" t="s">
-        <v>491</v>
-      </c>
-      <c r="F15" s="132">
+        <v>63</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>437</v>
+      </c>
+      <c r="F15" s="117">
         <v>111.93</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>12</v>
@@ -3261,19 +3056,19 @@
         <v>10</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K15" s="10">
         <v>111</v>
       </c>
-      <c r="L15" s="116" t="s">
-        <v>371</v>
-      </c>
-      <c r="M15" s="117" t="s">
-        <v>311</v>
+      <c r="L15" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="M15" s="102" t="s">
+        <v>257</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O15" s="11"/>
     </row>
@@ -3282,43 +3077,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="134" t="s">
-        <v>492</v>
-      </c>
-      <c r="F16" s="132">
+        <v>67</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>438</v>
+      </c>
+      <c r="F16" s="117">
         <v>112.62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="116" t="s">
-        <v>372</v>
-      </c>
-      <c r="M16" s="117" t="s">
-        <v>312</v>
+        <v>69</v>
+      </c>
+      <c r="L16" s="101" t="s">
+        <v>318</v>
+      </c>
+      <c r="M16" s="102" t="s">
+        <v>258</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O16" s="11"/>
     </row>
@@ -3330,19 +3125,19 @@
         <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="134" t="s">
-        <v>493</v>
-      </c>
-      <c r="F17" s="132">
+        <v>71</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>439</v>
+      </c>
+      <c r="F17" s="117">
         <v>112.11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>12</v>
@@ -3354,16 +3149,16 @@
         <v>1973</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="116" t="s">
-        <v>373</v>
-      </c>
-      <c r="M17" s="117" t="s">
-        <v>313</v>
+        <v>72</v>
+      </c>
+      <c r="L17" s="101" t="s">
+        <v>319</v>
+      </c>
+      <c r="M17" s="102" t="s">
+        <v>259</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O17" s="11"/>
     </row>
@@ -3372,28 +3167,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="113" t="s">
-        <v>281</v>
+        <v>73</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>227</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="E18" s="135" t="s">
-        <v>494</v>
-      </c>
-      <c r="F18" s="132">
+        <v>367</v>
+      </c>
+      <c r="E18" s="120" t="s">
+        <v>440</v>
+      </c>
+      <c r="F18" s="117">
         <v>110.64</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="J18" s="17">
         <v>1973</v>
@@ -3401,17 +3196,17 @@
       <c r="K18" s="18">
         <v>110</v>
       </c>
-      <c r="L18" s="118" t="s">
-        <v>374</v>
-      </c>
-      <c r="M18" s="117" t="s">
-        <v>314</v>
+      <c r="L18" s="103" t="s">
+        <v>320</v>
+      </c>
+      <c r="M18" s="102" t="s">
+        <v>260</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" s="114" t="s">
-        <v>280</v>
+        <v>33</v>
+      </c>
+      <c r="O18" s="99" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3419,43 +3214,43 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="E19" s="136" t="s">
-        <v>495</v>
-      </c>
-      <c r="F19" s="132">
+        <v>368</v>
+      </c>
+      <c r="E19" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="F19" s="117">
         <v>112.18</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="119" t="s">
-        <v>375</v>
-      </c>
-      <c r="M19" s="117" t="s">
-        <v>315</v>
+        <v>78</v>
+      </c>
+      <c r="L19" s="104" t="s">
+        <v>321</v>
+      </c>
+      <c r="M19" s="102" t="s">
+        <v>261</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O19" s="19"/>
     </row>
@@ -3464,43 +3259,43 @@
         <v>19</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="E20" s="136" t="s">
-        <v>496</v>
-      </c>
-      <c r="F20" s="132">
+        <v>384</v>
+      </c>
+      <c r="E20" s="121" t="s">
+        <v>442</v>
+      </c>
+      <c r="F20" s="117">
         <v>113.28</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="119" t="s">
-        <v>376</v>
-      </c>
-      <c r="M20" s="117" t="s">
-        <v>316</v>
+        <v>82</v>
+      </c>
+      <c r="L20" s="104" t="s">
+        <v>322</v>
+      </c>
+      <c r="M20" s="102" t="s">
+        <v>262</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O20" s="11"/>
     </row>
@@ -3509,46 +3304,46 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="113" t="s">
-        <v>282</v>
+        <v>83</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="134" t="s">
-        <v>497</v>
-      </c>
-      <c r="F21" s="132">
+        <v>84</v>
+      </c>
+      <c r="E21" s="119" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" s="117">
         <v>111.42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="116" t="s">
-        <v>377</v>
-      </c>
-      <c r="M21" s="117" t="s">
-        <v>317</v>
+      <c r="L21" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="M21" s="102" t="s">
+        <v>263</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" s="114" t="s">
-        <v>468</v>
+        <v>33</v>
+      </c>
+      <c r="O21" s="99" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3556,43 +3351,43 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E22" s="134" t="s">
-        <v>498</v>
-      </c>
-      <c r="F22" s="132">
+        <v>385</v>
+      </c>
+      <c r="E22" s="119" t="s">
+        <v>444</v>
+      </c>
+      <c r="F22" s="117">
         <v>111.73</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="K22" s="10">
         <v>111</v>
       </c>
-      <c r="L22" s="116" t="s">
-        <v>378</v>
-      </c>
-      <c r="M22" s="117" t="s">
-        <v>318</v>
+      <c r="L22" s="101" t="s">
+        <v>324</v>
+      </c>
+      <c r="M22" s="102" t="s">
+        <v>264</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O22" s="11"/>
     </row>
@@ -3601,22 +3396,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="E23" s="137" t="s">
-        <v>499</v>
-      </c>
-      <c r="F23" s="132">
+        <v>407</v>
+      </c>
+      <c r="E23" s="122" t="s">
+        <v>445</v>
+      </c>
+      <c r="F23" s="117">
         <v>113.78</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H23" s="26" t="s">
         <v>12</v>
@@ -3625,19 +3420,19 @@
         <v>18</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L23" s="117" t="s">
-        <v>379</v>
-      </c>
-      <c r="M23" s="117" t="s">
-        <v>319</v>
+        <v>82</v>
+      </c>
+      <c r="L23" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="M23" s="102" t="s">
+        <v>265</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O23" s="11"/>
     </row>
@@ -3646,28 +3441,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="134" t="s">
-        <v>500</v>
-      </c>
-      <c r="F24" s="132">
+        <v>93</v>
+      </c>
+      <c r="E24" s="119" t="s">
+        <v>446</v>
+      </c>
+      <c r="F24" s="117">
         <v>112.18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J24" s="9">
         <v>1981</v>
@@ -3675,14 +3470,14 @@
       <c r="K24" s="10">
         <v>112</v>
       </c>
-      <c r="L24" s="116" t="s">
-        <v>380</v>
-      </c>
-      <c r="M24" s="117" t="s">
-        <v>320</v>
+      <c r="L24" s="101" t="s">
+        <v>326</v>
+      </c>
+      <c r="M24" s="102" t="s">
+        <v>266</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O24" s="11"/>
     </row>
@@ -3691,40 +3486,40 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="E25" s="134" t="s">
-        <v>501</v>
-      </c>
-      <c r="F25" s="132">
+        <v>386</v>
+      </c>
+      <c r="E25" s="119" t="s">
+        <v>447</v>
+      </c>
+      <c r="F25" s="117">
         <v>113.22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L25" s="116" t="s">
-        <v>381</v>
-      </c>
-      <c r="M25" s="117" t="s">
-        <v>321</v>
+        <v>98</v>
+      </c>
+      <c r="L25" s="101" t="s">
+        <v>327</v>
+      </c>
+      <c r="M25" s="102" t="s">
+        <v>267</v>
       </c>
       <c r="N25" s="13">
         <v>37449</v>
@@ -3736,40 +3531,40 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="119" t="s">
+        <v>448</v>
+      </c>
+      <c r="F26" s="117">
+        <v>113.42</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="134" t="s">
-        <v>502</v>
-      </c>
-      <c r="F26" s="132">
-        <v>113.42</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="K26" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L26" s="116" t="s">
-        <v>382</v>
-      </c>
-      <c r="M26" s="117" t="s">
-        <v>322</v>
+        <v>98</v>
+      </c>
+      <c r="L26" s="101" t="s">
+        <v>328</v>
+      </c>
+      <c r="M26" s="102" t="s">
+        <v>268</v>
       </c>
       <c r="N26" s="13">
         <v>37449</v>
@@ -3781,93 +3576,93 @@
         <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="113" t="s">
-        <v>284</v>
+        <v>102</v>
+      </c>
+      <c r="C27" s="98" t="s">
+        <v>230</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="138" t="s">
-        <v>503</v>
-      </c>
-      <c r="F27" s="132">
+        <v>103</v>
+      </c>
+      <c r="E27" s="123" t="s">
+        <v>449</v>
+      </c>
+      <c r="F27" s="117">
         <v>114.61</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="L27" s="120" t="s">
-        <v>383</v>
-      </c>
-      <c r="M27" s="117" t="s">
-        <v>323</v>
+        <v>106</v>
+      </c>
+      <c r="L27" s="105" t="s">
+        <v>329</v>
+      </c>
+      <c r="M27" s="102" t="s">
+        <v>269</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="O27" s="29" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="113" t="s">
-        <v>286</v>
+      <c r="B28" s="98" t="s">
+        <v>232</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="E28" s="137" t="s">
-        <v>504</v>
-      </c>
-      <c r="F28" s="132">
+        <v>387</v>
+      </c>
+      <c r="E28" s="122" t="s">
+        <v>450</v>
+      </c>
+      <c r="F28" s="117">
         <v>115.22</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H28" s="26" t="s">
         <v>12</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="L28" s="117" t="s">
-        <v>381</v>
-      </c>
-      <c r="M28" s="117" t="s">
-        <v>324</v>
+        <v>110</v>
+      </c>
+      <c r="L28" s="102" t="s">
+        <v>327</v>
+      </c>
+      <c r="M28" s="102" t="s">
+        <v>270</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="O28" s="115" t="s">
-        <v>285</v>
+        <v>415</v>
+      </c>
+      <c r="O28" s="100" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3878,19 +3673,19 @@
         <v>18</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="134" t="s">
-        <v>505</v>
-      </c>
-      <c r="F29" s="132">
+        <v>112</v>
+      </c>
+      <c r="E29" s="119" t="s">
+        <v>451</v>
+      </c>
+      <c r="F29" s="117">
         <v>113.68</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>12</v>
@@ -3899,19 +3694,19 @@
         <v>18</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="K29" s="10">
         <v>113</v>
       </c>
-      <c r="L29" s="116" t="s">
-        <v>384</v>
-      </c>
-      <c r="M29" s="117" t="s">
-        <v>325</v>
+      <c r="L29" s="101" t="s">
+        <v>330</v>
+      </c>
+      <c r="M29" s="102" t="s">
+        <v>271</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O29" s="11"/>
     </row>
@@ -3923,40 +3718,40 @@
         <v>10</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="134" t="s">
-        <v>506</v>
-      </c>
-      <c r="F30" s="132">
+        <v>115</v>
+      </c>
+      <c r="E30" s="119" t="s">
+        <v>452</v>
+      </c>
+      <c r="F30" s="117">
         <v>114.57</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="J30" s="9">
         <v>1987</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L30" s="116" t="s">
-        <v>385</v>
-      </c>
-      <c r="M30" s="117" t="s">
-        <v>326</v>
+        <v>106</v>
+      </c>
+      <c r="L30" s="101" t="s">
+        <v>331</v>
+      </c>
+      <c r="M30" s="102" t="s">
+        <v>272</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O30" s="11"/>
     </row>
@@ -3965,43 +3760,43 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="E31" s="134" t="s">
-        <v>507</v>
-      </c>
-      <c r="F31" s="132">
+        <v>359</v>
+      </c>
+      <c r="E31" s="119" t="s">
+        <v>453</v>
+      </c>
+      <c r="F31" s="117">
         <v>114.25</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="K31" s="10">
         <v>114</v>
       </c>
-      <c r="L31" s="116" t="s">
-        <v>386</v>
-      </c>
-      <c r="M31" s="117" t="s">
-        <v>327</v>
+      <c r="L31" s="101" t="s">
+        <v>332</v>
+      </c>
+      <c r="M31" s="102" t="s">
+        <v>273</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O31" s="35"/>
     </row>
@@ -4010,46 +3805,46 @@
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="113" t="s">
-        <v>288</v>
+        <v>86</v>
+      </c>
+      <c r="C32" s="98" t="s">
+        <v>234</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="E32" s="137" t="s">
-        <v>508</v>
-      </c>
-      <c r="F32" s="132">
+        <v>402</v>
+      </c>
+      <c r="E32" s="122" t="s">
+        <v>454</v>
+      </c>
+      <c r="F32" s="117">
         <v>122.45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H32" s="26" t="s">
         <v>12</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="L32" s="117" t="s">
-        <v>387</v>
-      </c>
-      <c r="M32" s="117" t="s">
-        <v>328</v>
+        <v>121</v>
+      </c>
+      <c r="L32" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="M32" s="102" t="s">
+        <v>274</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="O32" s="114" t="s">
-        <v>287</v>
+        <v>33</v>
+      </c>
+      <c r="O32" s="99" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4057,43 +3852,43 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="E33" s="134" t="s">
-        <v>509</v>
-      </c>
-      <c r="F33" s="132">
+        <v>388</v>
+      </c>
+      <c r="E33" s="119" t="s">
+        <v>455</v>
+      </c>
+      <c r="F33" s="117">
         <v>117.63</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="L33" s="116" t="s">
-        <v>388</v>
-      </c>
-      <c r="M33" s="117" t="s">
-        <v>329</v>
+        <v>126</v>
+      </c>
+      <c r="L33" s="101" t="s">
+        <v>334</v>
+      </c>
+      <c r="M33" s="102" t="s">
+        <v>275</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O33" s="11"/>
     </row>
@@ -4102,43 +3897,43 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="E34" s="134" t="s">
-        <v>510</v>
-      </c>
-      <c r="F34" s="132">
+        <v>416</v>
+      </c>
+      <c r="E34" s="119" t="s">
+        <v>456</v>
+      </c>
+      <c r="F34" s="117">
         <v>119.27</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="L34" s="116" t="s">
-        <v>389</v>
-      </c>
-      <c r="M34" s="117" t="s">
-        <v>330</v>
+        <v>129</v>
+      </c>
+      <c r="L34" s="101" t="s">
+        <v>335</v>
+      </c>
+      <c r="M34" s="102" t="s">
+        <v>276</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O34" s="11"/>
     </row>
@@ -4150,19 +3945,19 @@
         <v>10</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E35" s="134" t="s">
-        <v>511</v>
-      </c>
-      <c r="F35" s="132">
+        <v>377</v>
+      </c>
+      <c r="E35" s="119" t="s">
+        <v>457</v>
+      </c>
+      <c r="F35" s="117">
         <v>114.99</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>12</v>
@@ -4171,19 +3966,19 @@
         <v>10</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="K35" s="10">
         <v>114</v>
       </c>
-      <c r="L35" s="116" t="s">
-        <v>390</v>
-      </c>
-      <c r="M35" s="117" t="s">
-        <v>331</v>
+      <c r="L35" s="101" t="s">
+        <v>336</v>
+      </c>
+      <c r="M35" s="102" t="s">
+        <v>277</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="O35" s="11"/>
     </row>
@@ -4192,43 +3987,43 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="E36" s="134" t="s">
-        <v>512</v>
-      </c>
-      <c r="F36" s="132">
+        <v>408</v>
+      </c>
+      <c r="E36" s="119" t="s">
+        <v>458</v>
+      </c>
+      <c r="F36" s="117">
         <v>115.12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="L36" s="116" t="s">
-        <v>391</v>
-      </c>
-      <c r="M36" s="117" t="s">
-        <v>332</v>
+        <v>110</v>
+      </c>
+      <c r="L36" s="101" t="s">
+        <v>337</v>
+      </c>
+      <c r="M36" s="102" t="s">
+        <v>278</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O36" s="11"/>
     </row>
@@ -4237,40 +4032,40 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="E37" s="134" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="132">
+        <v>398</v>
+      </c>
+      <c r="E37" s="119" t="s">
+        <v>459</v>
+      </c>
+      <c r="F37" s="117">
         <v>115.15</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="L37" s="116" t="s">
-        <v>392</v>
-      </c>
-      <c r="M37" s="117" t="s">
-        <v>333</v>
+        <v>110</v>
+      </c>
+      <c r="L37" s="101" t="s">
+        <v>338</v>
+      </c>
+      <c r="M37" s="102" t="s">
+        <v>279</v>
       </c>
       <c r="N37" s="13">
         <v>37024</v>
@@ -4284,26 +4079,26 @@
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="113" t="s">
-        <v>290</v>
+      <c r="C38" s="98" t="s">
+        <v>236</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="E38" s="134" t="s">
-        <v>514</v>
-      </c>
-      <c r="F38" s="132">
+        <v>378</v>
+      </c>
+      <c r="E38" s="119" t="s">
+        <v>460</v>
+      </c>
+      <c r="F38" s="117">
         <v>114.53</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="J38" s="9">
         <v>2002</v>
@@ -4311,40 +4106,40 @@
       <c r="K38" s="10">
         <v>114</v>
       </c>
-      <c r="L38" s="116" t="s">
-        <v>393</v>
-      </c>
-      <c r="M38" s="117" t="s">
-        <v>334</v>
+      <c r="L38" s="101" t="s">
+        <v>339</v>
+      </c>
+      <c r="M38" s="102" t="s">
+        <v>280</v>
       </c>
       <c r="N38" s="13">
         <v>37420</v>
       </c>
-      <c r="O38" s="114" t="s">
-        <v>289</v>
+      <c r="O38" s="99" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="113" t="s">
-        <v>292</v>
+      <c r="B39" s="98" t="s">
+        <v>238</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="E39" s="134" t="s">
-        <v>515</v>
-      </c>
-      <c r="F39" s="132">
+        <v>403</v>
+      </c>
+      <c r="E39" s="119" t="s">
+        <v>461</v>
+      </c>
+      <c r="F39" s="117">
         <v>114.5</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>12</v>
@@ -4358,17 +4153,17 @@
       <c r="K39" s="10">
         <v>114</v>
       </c>
-      <c r="L39" s="116" t="s">
-        <v>394</v>
-      </c>
-      <c r="M39" s="117" t="s">
-        <v>335</v>
+      <c r="L39" s="101" t="s">
+        <v>340</v>
+      </c>
+      <c r="M39" s="102" t="s">
+        <v>281</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O39" s="114" t="s">
-        <v>291</v>
+      <c r="O39" s="99" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4376,28 +4171,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="E40" s="134" t="s">
-        <v>516</v>
-      </c>
-      <c r="F40" s="132">
+        <v>399</v>
+      </c>
+      <c r="E40" s="119" t="s">
+        <v>462</v>
+      </c>
+      <c r="F40" s="117">
         <v>113.94</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="J40" s="9">
         <v>2002</v>
@@ -4405,14 +4200,14 @@
       <c r="K40" s="10">
         <v>113</v>
       </c>
-      <c r="L40" s="116" t="s">
-        <v>395</v>
-      </c>
-      <c r="M40" s="117" t="s">
-        <v>336</v>
+      <c r="L40" s="101" t="s">
+        <v>341</v>
+      </c>
+      <c r="M40" s="102" t="s">
+        <v>282</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="O40" s="19"/>
     </row>
@@ -4421,40 +4216,40 @@
         <v>40</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="E41" s="136" t="s">
-        <v>517</v>
-      </c>
-      <c r="F41" s="132">
+        <v>371</v>
+      </c>
+      <c r="E41" s="121" t="s">
+        <v>463</v>
+      </c>
+      <c r="F41" s="117">
         <v>114.52</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="L41" s="119" t="s">
-        <v>396</v>
-      </c>
-      <c r="M41" s="117" t="s">
-        <v>337</v>
+        <v>106</v>
+      </c>
+      <c r="L41" s="104" t="s">
+        <v>342</v>
+      </c>
+      <c r="M41" s="102" t="s">
+        <v>283</v>
       </c>
       <c r="N41" s="20" t="s">
         <v>16</v>
@@ -4466,28 +4261,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" s="136" t="s">
-        <v>518</v>
-      </c>
-      <c r="F42" s="132">
+        <v>143</v>
+      </c>
+      <c r="E42" s="121" t="s">
+        <v>464</v>
+      </c>
+      <c r="F42" s="117">
         <v>114.5</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H42" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="J42" s="23">
         <v>2003</v>
@@ -4495,11 +4290,11 @@
       <c r="K42" s="24">
         <v>114</v>
       </c>
-      <c r="L42" s="119" t="s">
-        <v>363</v>
-      </c>
-      <c r="M42" s="117" t="s">
-        <v>333</v>
+      <c r="L42" s="104" t="s">
+        <v>309</v>
+      </c>
+      <c r="M42" s="102" t="s">
+        <v>279</v>
       </c>
       <c r="N42" s="22">
         <v>2000</v>
@@ -4511,46 +4306,46 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C43" s="113" t="s">
-        <v>293</v>
+        <v>145</v>
+      </c>
+      <c r="C43" s="98" t="s">
+        <v>239</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E43" s="134" t="s">
-        <v>519</v>
-      </c>
-      <c r="F43" s="132">
+        <v>389</v>
+      </c>
+      <c r="E43" s="119" t="s">
+        <v>465</v>
+      </c>
+      <c r="F43" s="117">
         <v>114.75</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="K43" s="10">
         <v>114</v>
       </c>
-      <c r="L43" s="116" t="s">
-        <v>397</v>
-      </c>
-      <c r="M43" s="117" t="s">
-        <v>338</v>
+      <c r="L43" s="101" t="s">
+        <v>343</v>
+      </c>
+      <c r="M43" s="102" t="s">
+        <v>284</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="O43" s="114" t="s">
-        <v>427</v>
+        <v>372</v>
+      </c>
+      <c r="O43" s="99" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4558,46 +4353,46 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="113" t="s">
-        <v>294</v>
+        <v>147</v>
+      </c>
+      <c r="C44" s="98" t="s">
+        <v>240</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="E44" s="134" t="s">
-        <v>520</v>
-      </c>
-      <c r="F44" s="132">
+        <v>417</v>
+      </c>
+      <c r="E44" s="119" t="s">
+        <v>466</v>
+      </c>
+      <c r="F44" s="117">
         <v>116.95</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="L44" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="M44" s="117" t="s">
-        <v>339</v>
+        <v>149</v>
+      </c>
+      <c r="L44" s="101" t="s">
+        <v>344</v>
+      </c>
+      <c r="M44" s="102" t="s">
+        <v>285</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="O44" s="36" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4605,28 +4400,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="E45" s="139" t="s">
-        <v>521</v>
-      </c>
-      <c r="F45" s="132">
+        <v>390</v>
+      </c>
+      <c r="E45" s="124" t="s">
+        <v>467</v>
+      </c>
+      <c r="F45" s="117">
         <v>116.32</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="H45" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I45" s="40" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="J45" s="41">
         <v>2006</v>
@@ -4634,14 +4429,14 @@
       <c r="K45" s="42">
         <v>116</v>
       </c>
-      <c r="L45" s="121" t="s">
-        <v>399</v>
-      </c>
-      <c r="M45" s="117" t="s">
-        <v>340</v>
+      <c r="L45" s="106" t="s">
+        <v>345</v>
+      </c>
+      <c r="M45" s="102" t="s">
+        <v>286</v>
       </c>
       <c r="N45" s="38" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
       <c r="O45" s="37"/>
     </row>
@@ -4650,43 +4445,43 @@
         <v>45</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>445</v>
-      </c>
-      <c r="E46" s="140" t="s">
-        <v>522</v>
-      </c>
-      <c r="F46" s="132">
+        <v>391</v>
+      </c>
+      <c r="E46" s="125" t="s">
+        <v>468</v>
+      </c>
+      <c r="F46" s="117">
         <v>115.43</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>194</v>
+        <v>489</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I46" s="45" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="J46" s="46" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="K46" s="47">
         <v>115</v>
       </c>
-      <c r="L46" s="122" t="s">
-        <v>380</v>
-      </c>
-      <c r="M46" s="117" t="s">
-        <v>341</v>
+      <c r="L46" s="107" t="s">
+        <v>326</v>
+      </c>
+      <c r="M46" s="102" t="s">
+        <v>287</v>
       </c>
       <c r="N46" s="43" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="O46" s="36"/>
     </row>
@@ -4695,28 +4490,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="E47" s="139" t="s">
-        <v>523</v>
-      </c>
-      <c r="F47" s="132">
+        <v>379</v>
+      </c>
+      <c r="E47" s="124" t="s">
+        <v>469</v>
+      </c>
+      <c r="F47" s="117">
         <v>114.18</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="H47" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I47" s="40" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="J47" s="41">
         <v>2007</v>
@@ -4724,14 +4519,14 @@
       <c r="K47" s="42">
         <v>114</v>
       </c>
-      <c r="L47" s="121" t="s">
-        <v>400</v>
-      </c>
-      <c r="M47" s="117" t="s">
-        <v>342</v>
+      <c r="L47" s="106" t="s">
+        <v>346</v>
+      </c>
+      <c r="M47" s="102" t="s">
+        <v>288</v>
       </c>
       <c r="N47" s="38" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="O47" s="19"/>
     </row>
@@ -4740,28 +4535,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" s="136" t="s">
-        <v>524</v>
-      </c>
-      <c r="F48" s="132">
+        <v>158</v>
+      </c>
+      <c r="E48" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="F48" s="117">
         <v>114.61</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H48" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="J48" s="23">
         <v>2007</v>
@@ -4769,14 +4564,14 @@
       <c r="K48" s="24">
         <v>114</v>
       </c>
-      <c r="L48" s="119" t="s">
-        <v>397</v>
-      </c>
-      <c r="M48" s="117" t="s">
+      <c r="L48" s="104" t="s">
         <v>343</v>
       </c>
+      <c r="M48" s="102" t="s">
+        <v>289</v>
+      </c>
       <c r="N48" s="20" t="s">
-        <v>472</v>
+        <v>418</v>
       </c>
       <c r="O48" s="11"/>
     </row>
@@ -4785,43 +4580,43 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="E49" s="134" t="s">
-        <v>525</v>
-      </c>
-      <c r="F49" s="132">
+        <v>410</v>
+      </c>
+      <c r="E49" s="119" t="s">
+        <v>471</v>
+      </c>
+      <c r="F49" s="117">
         <v>115.6</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="L49" s="116" t="s">
-        <v>401</v>
-      </c>
-      <c r="M49" s="117" t="s">
-        <v>344</v>
+        <v>110</v>
+      </c>
+      <c r="L49" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" s="102" t="s">
+        <v>290</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="O49" s="11"/>
     </row>
@@ -4830,43 +4625,43 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="E50" s="134" t="s">
-        <v>526</v>
-      </c>
-      <c r="F50" s="132">
+        <v>419</v>
+      </c>
+      <c r="E50" s="119" t="s">
+        <v>472</v>
+      </c>
+      <c r="F50" s="117">
         <v>115.31</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="K50" s="10">
         <v>115</v>
       </c>
-      <c r="L50" s="116" t="s">
-        <v>402</v>
-      </c>
-      <c r="M50" s="117" t="s">
-        <v>345</v>
+      <c r="L50" s="101" t="s">
+        <v>348</v>
+      </c>
+      <c r="M50" s="102" t="s">
+        <v>291</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>474</v>
+        <v>420</v>
       </c>
       <c r="O50" s="36"/>
     </row>
@@ -4875,22 +4670,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="E51" s="139" t="s">
-        <v>527</v>
-      </c>
-      <c r="F51" s="132">
+        <v>167</v>
+      </c>
+      <c r="E51" s="124" t="s">
+        <v>473</v>
+      </c>
+      <c r="F51" s="117">
         <v>115.43</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="H51" s="39" t="s">
         <v>12</v>
@@ -4902,16 +4697,16 @@
         <v>2009</v>
       </c>
       <c r="K51" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="L51" s="121" t="s">
-        <v>371</v>
-      </c>
-      <c r="M51" s="117" t="s">
-        <v>346</v>
+        <v>110</v>
+      </c>
+      <c r="L51" s="106" t="s">
+        <v>317</v>
+      </c>
+      <c r="M51" s="102" t="s">
+        <v>292</v>
       </c>
       <c r="N51" s="38" t="s">
-        <v>475</v>
+        <v>421</v>
       </c>
       <c r="O51" s="19"/>
     </row>
@@ -4920,43 +4715,43 @@
         <v>51</v>
       </c>
       <c r="B52" s="49" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C52" s="49" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D52" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" s="141" t="s">
-        <v>528</v>
-      </c>
-      <c r="F52" s="132">
+        <v>169</v>
+      </c>
+      <c r="E52" s="126" t="s">
+        <v>474</v>
+      </c>
+      <c r="F52" s="117">
         <v>114.98</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H52" s="50" t="s">
         <v>12</v>
       </c>
       <c r="I52" s="51" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="J52" s="52" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="K52" s="53">
         <v>114</v>
       </c>
-      <c r="L52" s="123" t="s">
-        <v>403</v>
-      </c>
-      <c r="M52" s="117" t="s">
-        <v>334</v>
+      <c r="L52" s="108" t="s">
+        <v>349</v>
+      </c>
+      <c r="M52" s="102" t="s">
+        <v>280</v>
       </c>
       <c r="N52" s="49" t="s">
-        <v>476</v>
+        <v>422</v>
       </c>
       <c r="O52" s="11"/>
     </row>
@@ -4965,28 +4760,28 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="E53" s="134" t="s">
-        <v>529</v>
-      </c>
-      <c r="F53" s="132">
+        <v>404</v>
+      </c>
+      <c r="E53" s="119" t="s">
+        <v>475</v>
+      </c>
+      <c r="F53" s="117">
         <v>114.72</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="J53" s="9">
         <v>2010</v>
@@ -4994,14 +4789,14 @@
       <c r="K53" s="10">
         <v>114</v>
       </c>
-      <c r="L53" s="116" t="s">
-        <v>404</v>
-      </c>
-      <c r="M53" s="117" t="s">
-        <v>327</v>
+      <c r="L53" s="101" t="s">
+        <v>350</v>
+      </c>
+      <c r="M53" s="102" t="s">
+        <v>273</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="O53" s="11"/>
     </row>
@@ -5010,46 +4805,46 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C54" s="113" t="s">
-        <v>296</v>
+        <v>174</v>
+      </c>
+      <c r="C54" s="98" t="s">
+        <v>242</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E54" s="134" t="s">
-        <v>530</v>
-      </c>
-      <c r="F54" s="132">
+        <v>175</v>
+      </c>
+      <c r="E54" s="119" t="s">
+        <v>476</v>
+      </c>
+      <c r="F54" s="117">
         <v>114.95</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="K54" s="10">
         <v>114</v>
       </c>
-      <c r="L54" s="116" t="s">
-        <v>405</v>
-      </c>
-      <c r="M54" s="117" t="s">
-        <v>344</v>
+      <c r="L54" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="M54" s="102" t="s">
+        <v>290</v>
       </c>
       <c r="N54" s="13">
         <v>40681</v>
       </c>
-      <c r="O54" s="114" t="s">
-        <v>295</v>
+      <c r="O54" s="99" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5057,43 +4852,43 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="E55" s="134" t="s">
-        <v>531</v>
-      </c>
-      <c r="F55" s="132">
+        <v>393</v>
+      </c>
+      <c r="E55" s="119" t="s">
+        <v>477</v>
+      </c>
+      <c r="F55" s="117">
         <v>116.27</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="L55" s="116" t="s">
-        <v>406</v>
-      </c>
-      <c r="M55" s="117" t="s">
-        <v>347</v>
+        <v>149</v>
+      </c>
+      <c r="L55" s="101" t="s">
+        <v>352</v>
+      </c>
+      <c r="M55" s="102" t="s">
+        <v>293</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="O55" s="11"/>
     </row>
@@ -5102,28 +4897,28 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E56" s="134" t="s">
-        <v>532</v>
-      </c>
-      <c r="F56" s="132">
+        <v>181</v>
+      </c>
+      <c r="E56" s="119" t="s">
+        <v>478</v>
+      </c>
+      <c r="F56" s="117">
         <v>115.7</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J56" s="9">
         <v>2012</v>
@@ -5131,14 +4926,14 @@
       <c r="K56" s="10">
         <v>115</v>
       </c>
-      <c r="L56" s="116" t="s">
-        <v>386</v>
-      </c>
-      <c r="M56" s="117" t="s">
-        <v>348</v>
+      <c r="L56" s="101" t="s">
+        <v>332</v>
+      </c>
+      <c r="M56" s="102" t="s">
+        <v>294</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="O56" s="19"/>
     </row>
@@ -5147,43 +4942,43 @@
         <v>56</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="E57" s="136" t="s">
-        <v>533</v>
-      </c>
-      <c r="F57" s="132">
+        <v>411</v>
+      </c>
+      <c r="E57" s="121" t="s">
+        <v>479</v>
+      </c>
+      <c r="F57" s="117">
         <v>116.15</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="L57" s="119" t="s">
-        <v>407</v>
-      </c>
-      <c r="M57" s="117" t="s">
-        <v>349</v>
+        <v>186</v>
+      </c>
+      <c r="L57" s="104" t="s">
+        <v>353</v>
+      </c>
+      <c r="M57" s="102" t="s">
+        <v>295</v>
       </c>
       <c r="N57" s="20" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="O57" s="19"/>
     </row>
@@ -5192,43 +4987,43 @@
         <v>57</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>428</v>
-      </c>
-      <c r="E58" s="142" t="s">
-        <v>534</v>
-      </c>
-      <c r="F58" s="132">
+        <v>374</v>
+      </c>
+      <c r="E58" s="127" t="s">
+        <v>480</v>
+      </c>
+      <c r="F58" s="117">
         <v>117.07</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H58" s="56" t="s">
         <v>12</v>
       </c>
       <c r="I58" s="57" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="J58" s="58" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="K58" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="L58" s="124" t="s">
-        <v>408</v>
-      </c>
-      <c r="M58" s="117" t="s">
-        <v>350</v>
+        <v>190</v>
+      </c>
+      <c r="L58" s="109" t="s">
+        <v>354</v>
+      </c>
+      <c r="M58" s="102" t="s">
+        <v>296</v>
       </c>
       <c r="N58" s="55" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
       <c r="O58" s="19"/>
     </row>
@@ -5237,28 +5032,28 @@
         <v>58</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="C59" s="61" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="E59" s="143" t="s">
-        <v>535</v>
-      </c>
-      <c r="F59" s="132">
+        <v>193</v>
+      </c>
+      <c r="E59" s="128" t="s">
+        <v>481</v>
+      </c>
+      <c r="F59" s="117">
         <v>116.76</v>
       </c>
-      <c r="G59" s="113" t="s">
-        <v>276</v>
+      <c r="G59" s="98" t="s">
+        <v>222</v>
       </c>
       <c r="H59" s="62" t="s">
         <v>12</v>
       </c>
       <c r="I59" s="63" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="J59" s="64">
         <v>2015</v>
@@ -5266,151 +5061,151 @@
       <c r="K59" s="65">
         <v>116</v>
       </c>
-      <c r="L59" s="125" t="s">
-        <v>400</v>
-      </c>
-      <c r="M59" s="117" t="s">
-        <v>351</v>
+      <c r="L59" s="110" t="s">
+        <v>346</v>
+      </c>
+      <c r="M59" s="102" t="s">
+        <v>297</v>
       </c>
       <c r="N59" s="63" t="s">
-        <v>245</v>
-      </c>
-      <c r="O59" s="115" t="s">
-        <v>297</v>
+        <v>194</v>
+      </c>
+      <c r="O59" s="100" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="54">
         <v>59</v>
       </c>
-      <c r="B60" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="D60" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="E60" s="144" t="s">
-        <v>536</v>
-      </c>
-      <c r="F60" s="132">
+      <c r="B60" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="129" t="s">
+        <v>482</v>
+      </c>
+      <c r="F60" s="117">
         <v>116.07</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="H60" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="J60" s="72">
+        <v>221</v>
+      </c>
+      <c r="H60" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" s="71">
         <v>2015</v>
       </c>
-      <c r="K60" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="L60" s="126" t="s">
-        <v>374</v>
-      </c>
-      <c r="M60" s="117" t="s">
-        <v>352</v>
-      </c>
-      <c r="N60" s="71" t="s">
-        <v>249</v>
-      </c>
-      <c r="O60" s="67"/>
+      <c r="K60" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="L60" s="111" t="s">
+        <v>320</v>
+      </c>
+      <c r="M60" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="N60" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="O60" s="66"/>
     </row>
     <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="74" t="s">
-        <v>250</v>
-      </c>
-      <c r="C61" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="D61" s="74" t="s">
-        <v>252</v>
-      </c>
-      <c r="E61" s="145" t="s">
-        <v>537</v>
-      </c>
-      <c r="F61" s="132">
+      <c r="B61" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="130" t="s">
+        <v>483</v>
+      </c>
+      <c r="F61" s="117">
         <v>116.85</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="H61" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="J61" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="K61" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="L61" s="127" t="s">
-        <v>385</v>
-      </c>
-      <c r="M61" s="117" t="s">
-        <v>353</v>
-      </c>
-      <c r="N61" s="74" t="s">
-        <v>448</v>
-      </c>
-      <c r="O61" s="73"/>
+        <v>221</v>
+      </c>
+      <c r="H61" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="J61" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="K61" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="L61" s="112" t="s">
+        <v>331</v>
+      </c>
+      <c r="M61" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="N61" s="73" t="s">
+        <v>394</v>
+      </c>
+      <c r="O61" s="72"/>
     </row>
     <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="C62" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="D62" s="78" t="s">
-        <v>435</v>
-      </c>
-      <c r="E62" s="146" t="s">
-        <v>538</v>
-      </c>
-      <c r="F62" s="132">
+      <c r="B62" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="D62" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="E62" s="131" t="s">
+        <v>484</v>
+      </c>
+      <c r="F62" s="117">
         <v>117.38</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H62" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="80" t="s">
-        <v>228</v>
-      </c>
-      <c r="J62" s="81" t="s">
-        <v>255</v>
-      </c>
-      <c r="K62" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="L62" s="128" t="s">
-        <v>382</v>
-      </c>
-      <c r="M62" s="117" t="s">
-        <v>354</v>
-      </c>
-      <c r="N62" s="78" t="s">
-        <v>459</v>
+        <v>219</v>
+      </c>
+      <c r="H62" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="J62" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="K62" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="L62" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="M62" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="N62" s="77" t="s">
+        <v>405</v>
       </c>
       <c r="O62" s="36"/>
     </row>
@@ -5418,43 +5213,43 @@
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="C63" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="D63" s="74" t="s">
-        <v>429</v>
-      </c>
-      <c r="E63" s="145" t="s">
-        <v>539</v>
-      </c>
-      <c r="F63" s="132">
+      <c r="B63" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="E63" s="130" t="s">
+        <v>485</v>
+      </c>
+      <c r="F63" s="117">
         <v>117.52</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="H63" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="J63" s="76">
+        <v>221</v>
+      </c>
+      <c r="H63" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="J63" s="75">
         <v>2017</v>
       </c>
-      <c r="K63" s="77">
+      <c r="K63" s="76">
         <v>117</v>
       </c>
-      <c r="L63" s="127" t="s">
-        <v>366</v>
-      </c>
-      <c r="M63" s="117" t="s">
-        <v>355</v>
-      </c>
-      <c r="N63" s="75">
+      <c r="L63" s="112" t="s">
+        <v>312</v>
+      </c>
+      <c r="M63" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="N63" s="74">
         <v>41447</v>
       </c>
       <c r="O63" s="36"/>
@@ -5463,44 +5258,44 @@
       <c r="A64" s="54">
         <v>63</v>
       </c>
-      <c r="B64" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="83" t="s">
-        <v>259</v>
-      </c>
-      <c r="D64" s="83" t="s">
-        <v>449</v>
-      </c>
-      <c r="E64" s="147" t="s">
-        <v>540</v>
-      </c>
-      <c r="F64" s="132">
+      <c r="B64" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="82" t="s">
+        <v>395</v>
+      </c>
+      <c r="E64" s="132" t="s">
+        <v>486</v>
+      </c>
+      <c r="F64" s="117">
         <v>117.71</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="H64" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="J64" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="K64" s="87">
+        <v>220</v>
+      </c>
+      <c r="H64" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="K64" s="86">
         <v>117</v>
       </c>
-      <c r="L64" s="129" t="s">
-        <v>409</v>
-      </c>
-      <c r="M64" s="117" t="s">
-        <v>356</v>
-      </c>
-      <c r="N64" s="83" t="s">
-        <v>416</v>
+      <c r="L64" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="M64" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="N64" s="82" t="s">
+        <v>362</v>
       </c>
       <c r="O64" s="36"/>
     </row>
@@ -5509,42 +5304,42 @@
         <v>64</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="D65" s="88">
+        <v>210</v>
+      </c>
+      <c r="D65" s="87">
         <v>488</v>
       </c>
-      <c r="E65" s="142" t="s">
-        <v>541</v>
-      </c>
-      <c r="F65" s="132">
+      <c r="E65" s="127" t="s">
+        <v>487</v>
+      </c>
+      <c r="F65" s="117">
         <v>117.22</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H65" s="56" t="s">
         <v>12</v>
       </c>
       <c r="I65" s="57" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="J65" s="58">
         <v>2018</v>
       </c>
       <c r="K65" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="L65" s="124" t="s">
-        <v>410</v>
-      </c>
-      <c r="M65" s="117" t="s">
-        <v>357</v>
-      </c>
-      <c r="N65" s="88">
+        <v>126</v>
+      </c>
+      <c r="L65" s="109" t="s">
+        <v>356</v>
+      </c>
+      <c r="M65" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="N65" s="87">
         <v>42188</v>
       </c>
       <c r="O65" s="60"/>
@@ -5553,42 +5348,42 @@
       <c r="A66" s="54">
         <v>65</v>
       </c>
-      <c r="B66" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="89" t="s">
-        <v>266</v>
-      </c>
-      <c r="D66" s="89" t="s">
-        <v>454</v>
-      </c>
-      <c r="E66" s="133" t="s">
-        <v>542</v>
-      </c>
-      <c r="F66" s="132">
+      <c r="B66" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="88" t="s">
+        <v>400</v>
+      </c>
+      <c r="E66" s="118" t="s">
+        <v>488</v>
+      </c>
+      <c r="F66" s="117">
         <v>115.59</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="H66" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="J66" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="K66" s="93" t="s">
-        <v>268</v>
-      </c>
-      <c r="L66" s="130"/>
-      <c r="M66" s="117" t="s">
-        <v>358</v>
-      </c>
-      <c r="N66" s="89" t="s">
-        <v>430</v>
+        <v>220</v>
+      </c>
+      <c r="H66" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="J66" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="K66" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="L66" s="115"/>
+      <c r="M66" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="N66" s="88" t="s">
+        <v>376</v>
       </c>
       <c r="O66" s="60"/>
     </row>
@@ -5596,529 +5391,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FD3C0-4A5F-4841-B9FA-4C0BA6E92A70}">
-  <dimension ref="A1:B64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="111">
-        <v>110.6986301369863</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="111">
-        <v>107.8958904109589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="111">
-        <v>108.56438356164384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="111">
-        <v>109.04109589041096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="111">
-        <v>109.43561643835616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="111">
-        <v>108.46575342465754</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="111">
-        <v>109.63561643835617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="111">
-        <v>109.66301369863014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="111">
-        <v>109.57808219178082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="111">
-        <v>109.57260273972602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="111">
-        <v>111.17534246575343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="111">
-        <v>110.65205479452055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="111">
-        <v>111.23835616438356</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="111">
-        <v>109.49589041095891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="111">
-        <v>111.63561643835617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="111">
-        <v>110.44109589041096</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="111">
-        <v>110.59726027397261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="111">
-        <v>111.81917808219178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="111">
-        <v>110.38082191780822</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="111">
-        <v>111.33424657534246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="111">
-        <v>111.03013698630137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="111">
-        <v>112.05479452054794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="111">
-        <v>111.53698630136986</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="111">
-        <v>112.50684931506849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="111">
-        <v>113.26301369863013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="111">
-        <v>113.53972602739726</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="111">
-        <v>113.39452054794521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="111">
-        <v>113.67123287671232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="111">
-        <v>114.21369863013699</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="111">
-        <v>112.88767123287671</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="111">
-        <v>116.93150684931507</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="111">
-        <v>117.55890410958904</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="97" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="111">
-        <v>114.14246575342466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="97" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" s="111">
-        <v>114.52328767123288</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="111">
-        <v>114.37260273972603</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="111">
-        <v>114.33698630136986</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="97" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" s="111">
-        <v>114.26849315068493</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" s="111">
-        <v>113.58356164383562</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="111">
-        <v>113.76986301369863</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="111">
-        <v>114.37260273972603</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="97" t="s">
-        <v>185</v>
-      </c>
-      <c r="B41" s="111">
-        <v>114.2027397260274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42" s="111">
-        <v>114.7068493150685</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="102" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="111">
-        <v>116.03287671232877</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="111">
-        <v>115.30684931506849</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="102" t="s">
-        <v>199</v>
-      </c>
-      <c r="B45" s="111">
-        <v>114.17260273972603</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="100" t="s">
-        <v>185</v>
-      </c>
-      <c r="B46" s="111">
-        <v>114.06575342465753</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="97" t="s">
-        <v>204</v>
-      </c>
-      <c r="B47" s="111">
-        <v>114.31506849315069</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="97" t="s">
-        <v>209</v>
-      </c>
-      <c r="B48" s="111">
-        <v>115.21095890410959</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="111">
-        <v>114.74246575342465</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="B50" s="111">
-        <v>114.33972602739726</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="B51" s="111">
-        <v>114.20547945205479</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="97" t="s">
-        <v>224</v>
-      </c>
-      <c r="B52" s="111">
-        <v>114.32328767123288</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="B53" s="111">
-        <v>114.81917808219178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="111">
-        <v>115.66849315068494</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="111">
-        <v>115.66301369863014</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="105" t="s">
-        <v>241</v>
-      </c>
-      <c r="B56" s="111">
-        <v>115.27123287671233</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" s="111">
-        <v>116.74246575342465</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="106" t="s">
-        <v>248</v>
-      </c>
-      <c r="B58" s="111">
-        <v>115.87123287671233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="111">
-        <v>115.94794520547946</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="108" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="111">
-        <v>116.45205479452055</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="111">
-        <v>117.0986301369863</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="109" t="s">
-        <v>262</v>
-      </c>
-      <c r="B62" s="111">
-        <v>117.11506849315069</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="105" t="s">
-        <v>265</v>
-      </c>
-      <c r="B63" s="111">
-        <v>116.96986301369863</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="110"/>
-      <c r="B64" s="111">
-        <v>115.55068493150685</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>